--- a/task_progress/tables/6.4.4tables/table11_anova.xlsx
+++ b/task_progress/tables/6.4.4tables/table11_anova.xlsx
@@ -507,45 +507,45 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03102639920545948</v>
+        <v>0.005097428904342204</v>
       </c>
       <c r="C2" t="n">
-        <v>15.04366885606235</v>
+        <v>9.876190485466571</v>
       </c>
       <c r="D2" t="n">
-        <v>1.57033106085925e-14</v>
+        <v>0.001706682719079534</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1080021246128509</v>
+        <v>0.1911888651918234</v>
       </c>
       <c r="F2" t="n">
-        <v>32.72914840334211</v>
+        <v>46.30318751788217</v>
       </c>
       <c r="G2" t="n">
-        <v>9.03458974713649e-49</v>
+        <v>5.9749277141797e-67</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02527793105383908</v>
+        <v>0.02022364582669617</v>
       </c>
       <c r="I2" t="n">
-        <v>1.532053484607298</v>
+        <v>4.897875533019251</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01802606260272362</v>
+        <v>5.440943725449198e-06</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>☆</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>†</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>†</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>★</t>
         </is>
       </c>
     </row>
@@ -555,43 +555,17 @@
           <t>Δε</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.0381757969725918</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4.417119564834924</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0006104192823128166</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.06842439865633899</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4.948140804924958</v>
-      </c>
-      <c r="G3" t="n">
-        <v>6.793504694925996e-06</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0844439805166312</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.221320797638961</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.1719560288776691</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>†</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>†</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -601,40 +575,36 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00602615506689465</v>
+        <v>0.0008339853827010908</v>
       </c>
       <c r="C4" t="n">
-        <v>3.774507708670824</v>
+        <v>2.578996870933961</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002072803356533872</v>
+        <v>0.1083940959718339</v>
       </c>
       <c r="E4" t="n">
-        <v>0.007539461579147183</v>
+        <v>0.01490811375413353</v>
       </c>
       <c r="F4" t="n">
-        <v>2.951483526168118</v>
+        <v>5.762687740238561</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002731237183989454</v>
+        <v>2.59370306971131e-07</v>
       </c>
       <c r="H4" t="n">
-        <v>0.006797028116268934</v>
+        <v>0.0008718497294263237</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5321684128626726</v>
+        <v>0.3370109612761934</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9931530968738048</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>☆</t>
-        </is>
-      </c>
+        <v>0.9518820882841087</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>☆</t>
+          <t>†</t>
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
